--- a/10_Driver_monitoring_system/Driver_monitoring_system_usbcam/exe/tinyyolov2_cam/tinyyolov2_cam_summary.xlsx
+++ b/10_Driver_monitoring_system/Driver_monitoring_system_usbcam/exe/tinyyolov2_cam/tinyyolov2_cam_summary.xlsx
@@ -834,7 +834,7 @@
         <v>416</v>
       </c>
       <c r="S6" t="n">
-        <v>3985</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="7" outlineLevel="1">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>33808</v>
+        <v>31487</v>
       </c>
     </row>
     <row r="26">
